--- a/API/api.xlsx
+++ b/API/api.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="261">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,10 +899,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片等的链接id,图片位于此名称的目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,6 +1044,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片位于此名称的目录下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,10 +1179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1507,11 +1507,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1541,7 +1541,7 @@
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1629,7 +1629,9 @@
       <c r="A7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>176</v>
       </c>
@@ -1774,7 +1776,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -1786,7 +1788,7 @@
         <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>201</v>
@@ -1795,16 +1797,16 @@
         <v>202</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,7 +1817,7 @@
         <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>203</v>
@@ -1824,16 +1826,16 @@
         <v>214</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,7 +1846,7 @@
         <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>204</v>
@@ -1853,16 +1855,16 @@
         <v>215</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,7 +1875,7 @@
         <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>205</v>
@@ -1882,7 +1884,7 @@
         <v>216</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>201</v>
@@ -1891,7 +1893,7 @@
         <v>202</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1902,7 +1904,7 @@
         <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>206</v>
@@ -1911,16 +1913,16 @@
         <v>217</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,7 +1933,7 @@
         <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>207</v>
@@ -1940,16 +1942,16 @@
         <v>218</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>194</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,7 +1962,7 @@
         <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>208</v>
@@ -1969,16 +1971,16 @@
         <v>219</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,7 +1991,7 @@
         <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>209</v>
@@ -1998,16 +2000,16 @@
         <v>220</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,16 +2020,16 @@
         <v>221</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,16 +2040,16 @@
         <v>222</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,19 +2057,19 @@
         <v>212</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2075,19 +2077,19 @@
         <v>213</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,41 +2097,41 @@
         <v>198</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">

--- a/API/api.xlsx
+++ b/API/api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="271">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,18 +727,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{status:0/1,msg:"",data[{user},{user}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{status:0/1,msg:"",data[{order},{order}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{status:0/1,msg:"",data[{product},{product}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user成员变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,6 +1036,58 @@
   </si>
   <si>
     <t>图片位于此名称的目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid/email/phone/yue/passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id/邮箱/电话/余额/密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{status:0/1,msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{status:0/1,msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{status:0/1,msg:"",data[{user},{user}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{status:0/1,msg:"",data[{order},{order}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{status:0/1,msg:"",data[{product},{product}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1151,24 +1191,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1177,8 +1204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1487,31 +1512,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="44.21875" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.25" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1"/>
+    <col min="8" max="8" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1519,7 +1544,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
@@ -1541,11 +1566,11 @@
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>140</v>
       </c>
@@ -1560,10 +1585,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -1585,120 +1610,120 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>173</v>
+        <v>258</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>143</v>
+      <c r="H9" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>161</v>
@@ -1709,15 +1734,15 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>162</v>
@@ -1731,21 +1756,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1753,426 +1778,441 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="13" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I25" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="I26" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E27" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>255</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="H31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2180,167 +2220,163 @@
         <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>37</v>
@@ -2349,21 +2385,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>37</v>
@@ -2372,21 +2408,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>37</v>
@@ -2395,21 +2431,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>37</v>
@@ -2418,19 +2454,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>37</v>
@@ -2439,21 +2477,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>37</v>
@@ -2462,21 +2498,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>37</v>
@@ -2485,21 +2521,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>37</v>
@@ -2508,41 +2544,41 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F54" s="1" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>132</v>
       </c>
@@ -2550,44 +2586,44 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>94</v>
@@ -2596,21 +2632,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>94</v>
@@ -2619,111 +2655,111 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>82</v>
@@ -2732,26 +2768,49 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/API/api.xlsx
+++ b/API/api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="274">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,10 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pname/pdesp/peizhi/price/kucun/type/kind/pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品名称/商品描述/商品配置/价格/库存/系列/种类，可选{light,game,Thinkpad}/商品pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1088,6 +1084,22 @@
   </si>
   <si>
     <t>{status:0/1,msg:"",data[{product},{product}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname/pdesp/peizhi/price/kucun/type/kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/big/intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称/商品描述/商品配置/价格/库存/系列/种类，可选{light,game,Thinkpad}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主图/大图/详情图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1515,22 +1527,22 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="44.25" customWidth="1"/>
-    <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="44.21875" customWidth="1"/>
+    <col min="5" max="5" width="48.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="47.25" customWidth="1"/>
+    <col min="8" max="8" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
         <v>156</v>
@@ -1541,10 +1553,10 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
@@ -1567,10 +1579,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>140</v>
       </c>
@@ -1585,10 +1597,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -1607,72 +1619,72 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>145</v>
       </c>
@@ -1683,38 +1695,38 @@
         <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>157</v>
@@ -1723,20 +1735,20 @@
         <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -1745,18 +1757,18 @@
         <v>158</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
@@ -1770,17 +1782,17 @@
         <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>155</v>
@@ -1789,18 +1801,18 @@
         <v>148</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>149</v>
       </c>
@@ -1819,383 +1831,383 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="F27" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="7" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="G28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="29" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="I30" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="5" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G30" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G31" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2204,7 +2216,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -2263,7 +2275,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -2284,7 +2296,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -2305,7 +2317,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2322,7 +2334,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
@@ -2343,7 +2355,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
@@ -2364,7 +2376,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>115</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>116</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
@@ -2521,7 +2533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
@@ -2544,7 +2556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
@@ -2586,7 +2598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>125</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
@@ -2724,7 +2736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>129</v>
       </c>
@@ -2747,7 +2759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>130</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
